--- a/va_facility_data_2025-02-20/Brookings VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brookings%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Brookings VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brookings%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf05b40b083a0441da7e27062ab3d6fc4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R19f3d99cd54b4d38966680cada457b7f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rad0dc21b159544c481836cb5f98cd3cf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re9b5db4edf83441aaffa4c54b1527be9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7a0ebec8b2924af7901b251f3c44050f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5d58553808cb4c7d9b70af48a75da0ed"/>
   </x:sheets>
 </x:workbook>
 </file>
